--- a/cayley.xlsx
+++ b/cayley.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cayley Table" sheetId="1" state="visible" r:id="rId2"/>
@@ -785,9 +785,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36.55"/>
   <cols>
-    <col collapsed="false" hidden="false" max="19" min="1" style="1" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.3010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="19" min="1" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -840,6 +840,7 @@
       <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="T1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -1732,8 +1733,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1020" min="18" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1020" min="18" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2672,8 +2673,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1020" min="18" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1020" min="18" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3605,14 +3606,14 @@
   </sheetPr>
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S16" activeCellId="0" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="18" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="42.1173469387755"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="41.5765306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -3666,6 +3667,7 @@
       <c r="Q1" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="S1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
@@ -3719,6 +3721,7 @@
       <c r="Q2" s="41" t="n">
         <v>1</v>
       </c>
+      <c r="S2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -3772,6 +3775,7 @@
       <c r="Q3" s="47" t="n">
         <v>-1</v>
       </c>
+      <c r="S3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -4523,2962 +4527,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="B6:D17,F2:Q5">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF000000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C2:E5">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF000000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF000000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:Q17">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF000000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:Q6">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF000000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
-  </sheetPr>
-  <dimension ref="A1:S18"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="34"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="18" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="42.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="6.0765306122449"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M3" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N3" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N4" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D6" s="40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="56" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="55" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="56" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="55" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L6" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="55" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O6" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="41" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="42" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="42" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D8" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="53" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K8" s="52" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q8" s="45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D9" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="42" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="39" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J9" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="55" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L9" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O9" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="55" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D10" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J10" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K10" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P10" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D11" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I11" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K11" s="52" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L11" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N11" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q11" s="53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="55" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I12" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K12" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="56" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="55" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O12" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q12" s="47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E13" s="45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F13" s="42" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K13" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L13" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N13" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="45" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L14" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N14" s="52" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O14" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P14" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F15" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I15" s="56" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J15" s="40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K15" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M15" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O15" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q15" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K16" s="45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L16" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M16" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N16" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="45" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="52" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F17" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H17" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="58" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J17" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="53" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L17" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N17" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O17" s="49" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P17" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <conditionalFormatting sqref="B6:D17,F2:Q5">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF000000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:E5">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF000000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF000000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:Q17">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF000000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:Q6">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF000000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
-  </sheetPr>
-  <dimension ref="A1:S18"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC11" activeCellId="0" sqref="AC11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="34"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="18" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="42.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="6.0765306122449"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K3" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P3" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q3" s="47" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I4" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J4" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K4" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="52" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J5" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K5" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L5" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N5" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O5" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="56" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="56" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="57" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P6" s="57" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q6" s="41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L7" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O7" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q7" s="45" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="58" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="53" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="58" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J8" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="52" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="49" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="45" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F9" s="42" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="55" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L9" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O9" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q9" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J10" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="47" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="42" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I11" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K11" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N11" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="49" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P11" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D12" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K12" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="55" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O12" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="47" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D13" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I13" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K13" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L13" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P13" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D14" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="58" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L14" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N14" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q14" s="45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D15" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F15" s="42" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="56" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J15" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="55" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L15" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M15" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N15" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="55" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D16" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H16" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I16" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J16" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K16" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N16" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O16" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P16" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D17" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="52" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F17" s="58" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I17" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K17" s="53" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L17" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M17" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O17" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q17" s="52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <conditionalFormatting sqref="B7:D17,F2:Q5,B6:D17">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF000000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:E5">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF000000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF000000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:Q17">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF000000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:Q6">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF000000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
-  </sheetPr>
-  <dimension ref="A1:S18"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="34"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="18" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="42.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="6.0765306122449"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K3" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P4" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q4" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S4" s="48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="52" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J5" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K5" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L5" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P5" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q5" s="53" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S5" s="54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D6" s="40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="56" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="56" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N6" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="57" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q6" s="41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L7" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O7" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="45" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D8" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="58" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="53" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="58" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J8" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="52" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="49" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F9" s="42" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="55" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L9" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N9" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="39" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P9" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="55" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J10" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O10" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P10" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q10" s="47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="42" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I11" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K11" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q11" s="53" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D12" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L12" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="55" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O12" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P12" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q12" s="47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D13" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F13" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I13" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J13" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K13" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q13" s="45" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D14" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="58" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K14" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L14" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N14" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P14" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="45" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K15" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O15" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="55" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I16" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L16" s="44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M16" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P16" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="58" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="58" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J17" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N17" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q17" s="52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <conditionalFormatting sqref="B6:D17,F2:Q5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -7508,18 +4557,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:E5">
+  <conditionalFormatting sqref="B2:Q17">
     <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF000000"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5">
-    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -7530,7 +4569,2941 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S16" activeCellId="0" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="34"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="18" min="1" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="6.0765306122449"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="41" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="55" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="45" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="45" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <conditionalFormatting sqref="C2:E5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:Q17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:Q6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:Q17">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S16" activeCellId="0" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="34"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="18" min="1" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="6.0765306122449"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q3" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q7" s="45" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="45" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="47" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="47" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="55" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O16" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <conditionalFormatting sqref="C2:E5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:Q17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:Q6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:Q17">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U16" activeCellId="0" sqref="U16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="34"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="18" min="1" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="6.0765306122449"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="45" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="55" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="53" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="45" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="45" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="55" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <conditionalFormatting sqref="E7:Q17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:Q6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:E5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:Q17">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
